--- a/Test_2026-01-01_11-21.xlsx
+++ b/Test_2026-01-01_11-21.xlsx
@@ -44,7 +44,7 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>1</t>
@@ -53,10 +53,10 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Thursday, 1 January, 2026 11:21 AM</t>
